--- a/Data_frame/balancos_definitivos/VAMO3.xlsx
+++ b/Data_frame/balancos_definitivos/VAMO3.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:U80"/>
+  <dimension ref="A1:X80"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -539,6 +539,21 @@
           <t>30/09/2023</t>
         </is>
       </c>
+      <c r="V1" s="1" t="inlineStr">
+        <is>
+          <t>31/12/2023</t>
+        </is>
+      </c>
+      <c r="W1" s="1" t="inlineStr">
+        <is>
+          <t>31/03/2024</t>
+        </is>
+      </c>
+      <c r="X1" s="1" t="inlineStr">
+        <is>
+          <t>30/06/2024</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -606,6 +621,15 @@
       <c r="U2" t="n">
         <v>19219163.136</v>
       </c>
+      <c r="V2" t="n">
+        <v>20808826.88</v>
+      </c>
+      <c r="W2" t="n">
+        <v>22334959.616</v>
+      </c>
+      <c r="X2" t="n">
+        <v>22657783.808</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -673,6 +697,15 @@
       <c r="U3" t="n">
         <v>5600508.928</v>
       </c>
+      <c r="V3" t="n">
+        <v>5957884.928</v>
+      </c>
+      <c r="W3" t="n">
+        <v>6218613.76</v>
+      </c>
+      <c r="X3" t="n">
+        <v>5992064</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -740,6 +773,15 @@
       <c r="U4" t="n">
         <v>385137.984</v>
       </c>
+      <c r="V4" t="n">
+        <v>97768</v>
+      </c>
+      <c r="W4" t="n">
+        <v>265779.008</v>
+      </c>
+      <c r="X4" t="n">
+        <v>240148.992</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -807,6 +849,15 @@
       <c r="U5" t="n">
         <v>1278258.048</v>
       </c>
+      <c r="V5" t="n">
+        <v>2196243.968</v>
+      </c>
+      <c r="W5" t="n">
+        <v>2182206.976</v>
+      </c>
+      <c r="X5" t="n">
+        <v>1847373.056</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -874,6 +925,15 @@
       <c r="U6" t="n">
         <v>1570663.936</v>
       </c>
+      <c r="V6" t="n">
+        <v>982814.0159999999</v>
+      </c>
+      <c r="W6" t="n">
+        <v>1081400.96</v>
+      </c>
+      <c r="X6" t="n">
+        <v>932200</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -941,6 +1001,15 @@
       <c r="U7" t="n">
         <v>1399170.944</v>
       </c>
+      <c r="V7" t="n">
+        <v>1650612.992</v>
+      </c>
+      <c r="W7" t="n">
+        <v>1545852.032</v>
+      </c>
+      <c r="X7" t="n">
+        <v>1572849.024</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -1008,6 +1077,15 @@
       <c r="U8" t="n">
         <v>0</v>
       </c>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="n">
+        <v>0</v>
+      </c>
+      <c r="X8" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -1075,6 +1153,15 @@
       <c r="U9" t="n">
         <v>389780</v>
       </c>
+      <c r="V9" t="n">
+        <v>479008</v>
+      </c>
+      <c r="W9" t="n">
+        <v>472276.992</v>
+      </c>
+      <c r="X9" t="n">
+        <v>490860.992</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -1142,6 +1229,15 @@
       <c r="U10" t="n">
         <v>39660</v>
       </c>
+      <c r="V10" t="n">
+        <v>18015</v>
+      </c>
+      <c r="W10" t="n">
+        <v>90181</v>
+      </c>
+      <c r="X10" t="n">
+        <v>87941</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -1209,6 +1305,15 @@
       <c r="U11" t="n">
         <v>537838.0159999999</v>
       </c>
+      <c r="V11" t="n">
+        <v>533423.008</v>
+      </c>
+      <c r="W11" t="n">
+        <v>580916.992</v>
+      </c>
+      <c r="X11" t="n">
+        <v>820691.008</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -1276,6 +1381,15 @@
       <c r="U12" t="n">
         <v>347572</v>
       </c>
+      <c r="V12" t="n">
+        <v>963081.024</v>
+      </c>
+      <c r="W12" t="n">
+        <v>920627.008</v>
+      </c>
+      <c r="X12" t="n">
+        <v>821881.024</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -1343,6 +1457,15 @@
       <c r="U13" t="n">
         <v>13137</v>
       </c>
+      <c r="V13" t="n">
+        <v>10950</v>
+      </c>
+      <c r="W13" t="n">
+        <v>10899</v>
+      </c>
+      <c r="X13" t="n">
+        <v>10638</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -1410,6 +1533,15 @@
       <c r="U14" t="n">
         <v>0</v>
       </c>
+      <c r="V14" t="n">
+        <v>0</v>
+      </c>
+      <c r="W14" t="n">
+        <v>0</v>
+      </c>
+      <c r="X14" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -1477,6 +1609,15 @@
       <c r="U15" t="n">
         <v>0</v>
       </c>
+      <c r="V15" t="n">
+        <v>0</v>
+      </c>
+      <c r="W15" t="n">
+        <v>0</v>
+      </c>
+      <c r="X15" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -1544,6 +1685,15 @@
       <c r="U16" t="n">
         <v>20982</v>
       </c>
+      <c r="V16" t="n">
+        <v>55511</v>
+      </c>
+      <c r="W16" t="n">
+        <v>76841</v>
+      </c>
+      <c r="X16" t="n">
+        <v>85961</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -1611,6 +1761,15 @@
       <c r="U17" t="n">
         <v>0</v>
       </c>
+      <c r="V17" t="n">
+        <v>0</v>
+      </c>
+      <c r="W17" t="n">
+        <v>0</v>
+      </c>
+      <c r="X17" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -1678,6 +1837,15 @@
       <c r="U18" t="n">
         <v>0</v>
       </c>
+      <c r="V18" t="n">
+        <v>0</v>
+      </c>
+      <c r="W18" t="n">
+        <v>0</v>
+      </c>
+      <c r="X18" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -1745,6 +1913,15 @@
       <c r="U19" t="n">
         <v>88141</v>
       </c>
+      <c r="V19" t="n">
+        <v>177600</v>
+      </c>
+      <c r="W19" t="n">
+        <v>194224.992</v>
+      </c>
+      <c r="X19" t="n">
+        <v>216142</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -1812,6 +1989,15 @@
       <c r="U20" t="n">
         <v>0</v>
       </c>
+      <c r="V20" t="n">
+        <v>0</v>
+      </c>
+      <c r="W20" t="n">
+        <v>0</v>
+      </c>
+      <c r="X20" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -1879,6 +2065,15 @@
       <c r="U21" t="n">
         <v>0</v>
       </c>
+      <c r="V21" t="n">
+        <v>0</v>
+      </c>
+      <c r="W21" t="n">
+        <v>0</v>
+      </c>
+      <c r="X21" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -1946,6 +2141,15 @@
       <c r="U22" t="n">
         <v>0</v>
       </c>
+      <c r="V22" t="n">
+        <v>0</v>
+      </c>
+      <c r="W22" t="n">
+        <v>0</v>
+      </c>
+      <c r="X22" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -2013,6 +2217,15 @@
       <c r="U23" t="n">
         <v>12705913.856</v>
       </c>
+      <c r="V23" t="n">
+        <v>13381557.248</v>
+      </c>
+      <c r="W23" t="n">
+        <v>14694810.624</v>
+      </c>
+      <c r="X23" t="n">
+        <v>15350112.256</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -2080,6 +2293,15 @@
       <c r="U24" t="n">
         <v>565169.024</v>
       </c>
+      <c r="V24" t="n">
+        <v>506303.008</v>
+      </c>
+      <c r="W24" t="n">
+        <v>500908.992</v>
+      </c>
+      <c r="X24" t="n">
+        <v>493727.008</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -2147,6 +2369,15 @@
       <c r="U25" t="n">
         <v>0</v>
       </c>
+      <c r="V25" t="n">
+        <v>0</v>
+      </c>
+      <c r="W25" t="n">
+        <v>0</v>
+      </c>
+      <c r="X25" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -2214,6 +2445,15 @@
       <c r="U26" t="n">
         <v>19219163.136</v>
       </c>
+      <c r="V26" t="n">
+        <v>20808826.88</v>
+      </c>
+      <c r="W26" t="n">
+        <v>22334959.616</v>
+      </c>
+      <c r="X26" t="n">
+        <v>22657783.808</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -2281,6 +2521,15 @@
       <c r="U27" t="n">
         <v>2761244.928</v>
       </c>
+      <c r="V27" t="n">
+        <v>3412500.992</v>
+      </c>
+      <c r="W27" t="n">
+        <v>4636029.952</v>
+      </c>
+      <c r="X27" t="n">
+        <v>4558027.776</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -2348,6 +2597,15 @@
       <c r="U28" t="n">
         <v>99111</v>
       </c>
+      <c r="V28" t="n">
+        <v>72819</v>
+      </c>
+      <c r="W28" t="n">
+        <v>61358</v>
+      </c>
+      <c r="X28" t="n">
+        <v>76871</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -2415,6 +2673,15 @@
       <c r="U29" t="n">
         <v>924096</v>
       </c>
+      <c r="V29" t="n">
+        <v>1214952.96</v>
+      </c>
+      <c r="W29" t="n">
+        <v>1638967.04</v>
+      </c>
+      <c r="X29" t="n">
+        <v>1832162.944</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -2482,6 +2749,15 @@
       <c r="U30" t="n">
         <v>29472</v>
       </c>
+      <c r="V30" t="n">
+        <v>43224</v>
+      </c>
+      <c r="W30" t="n">
+        <v>45024</v>
+      </c>
+      <c r="X30" t="n">
+        <v>46405</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -2549,6 +2825,15 @@
       <c r="U31" t="n">
         <v>976166.976</v>
       </c>
+      <c r="V31" t="n">
+        <v>881625.024</v>
+      </c>
+      <c r="W31" t="n">
+        <v>1572930.048</v>
+      </c>
+      <c r="X31" t="n">
+        <v>1673122.048</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -2616,6 +2901,15 @@
       <c r="U32" t="n">
         <v>0</v>
       </c>
+      <c r="V32" t="n">
+        <v>0</v>
+      </c>
+      <c r="W32" t="n">
+        <v>0</v>
+      </c>
+      <c r="X32" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -2683,6 +2977,15 @@
       <c r="U33" t="n">
         <v>0</v>
       </c>
+      <c r="V33" t="n">
+        <v>300174.016</v>
+      </c>
+      <c r="W33" t="n">
+        <v>302000</v>
+      </c>
+      <c r="X33" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -2750,6 +3053,15 @@
       <c r="U34" t="n">
         <v>732398.976</v>
       </c>
+      <c r="V34" t="n">
+        <v>899705.9199999999</v>
+      </c>
+      <c r="W34" t="n">
+        <v>1015751.04</v>
+      </c>
+      <c r="X34" t="n">
+        <v>929467.008</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -2817,6 +3129,15 @@
       <c r="U35" t="n">
         <v>0</v>
       </c>
+      <c r="V35" t="n">
+        <v>0</v>
+      </c>
+      <c r="W35" t="n">
+        <v>0</v>
+      </c>
+      <c r="X35" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -2884,6 +3205,15 @@
       <c r="U36" t="n">
         <v>0</v>
       </c>
+      <c r="V36" t="n">
+        <v>0</v>
+      </c>
+      <c r="W36" t="n">
+        <v>0</v>
+      </c>
+      <c r="X36" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -2951,6 +3281,15 @@
       <c r="U37" t="n">
         <v>11579138.048</v>
       </c>
+      <c r="V37" t="n">
+        <v>12661029.888</v>
+      </c>
+      <c r="W37" t="n">
+        <v>12809053.184</v>
+      </c>
+      <c r="X37" t="n">
+        <v>13076228.096</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -3018,6 +3357,15 @@
       <c r="U38" t="n">
         <v>9439132.672</v>
       </c>
+      <c r="V38" t="n">
+        <v>10835383.296</v>
+      </c>
+      <c r="W38" t="n">
+        <v>11083713.536</v>
+      </c>
+      <c r="X38" t="n">
+        <v>11522839.552</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -3085,6 +3433,15 @@
       <c r="U39" t="n">
         <v>0</v>
       </c>
+      <c r="V39" t="n">
+        <v>0</v>
+      </c>
+      <c r="W39" t="n">
+        <v>0</v>
+      </c>
+      <c r="X39" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -3152,6 +3509,15 @@
       <c r="U40" t="n">
         <v>385223.008</v>
       </c>
+      <c r="V40" t="n">
+        <v>282152</v>
+      </c>
+      <c r="W40" t="n">
+        <v>228775.008</v>
+      </c>
+      <c r="X40" t="n">
+        <v>223422</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -3219,6 +3585,15 @@
       <c r="U41" t="n">
         <v>381641.984</v>
       </c>
+      <c r="V41" t="n">
+        <v>397080</v>
+      </c>
+      <c r="W41" t="n">
+        <v>470735.008</v>
+      </c>
+      <c r="X41" t="n">
+        <v>526775.008</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -3286,6 +3661,15 @@
       <c r="U42" t="n">
         <v>0</v>
       </c>
+      <c r="V42" t="n">
+        <v>0</v>
+      </c>
+      <c r="W42" t="n">
+        <v>0</v>
+      </c>
+      <c r="X42" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -3353,6 +3737,15 @@
       <c r="U43" t="n">
         <v>1373139.968</v>
       </c>
+      <c r="V43" t="n">
+        <v>1146414.976</v>
+      </c>
+      <c r="W43" t="n">
+        <v>1025828.992</v>
+      </c>
+      <c r="X43" t="n">
+        <v>803190.976</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -3420,6 +3813,15 @@
       <c r="U44" t="n">
         <v>0</v>
       </c>
+      <c r="V44" t="n">
+        <v>0</v>
+      </c>
+      <c r="W44" t="n">
+        <v>0</v>
+      </c>
+      <c r="X44" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -3487,6 +3889,15 @@
       <c r="U45" t="n">
         <v>0</v>
       </c>
+      <c r="V45" t="n">
+        <v>0</v>
+      </c>
+      <c r="W45" t="n">
+        <v>0</v>
+      </c>
+      <c r="X45" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -3554,6 +3965,15 @@
       <c r="U46" t="n">
         <v>0</v>
       </c>
+      <c r="V46" t="n">
+        <v>0</v>
+      </c>
+      <c r="W46" t="n">
+        <v>0</v>
+      </c>
+      <c r="X46" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -3621,6 +4041,15 @@
       <c r="U47" t="n">
         <v>4878780.928</v>
       </c>
+      <c r="V47" t="n">
+        <v>4735294.976</v>
+      </c>
+      <c r="W47" t="n">
+        <v>4889878.016</v>
+      </c>
+      <c r="X47" t="n">
+        <v>5023527.936</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -3688,6 +4117,15 @@
       <c r="U48" t="n">
         <v>2142576</v>
       </c>
+      <c r="V48" t="n">
+        <v>2142576</v>
+      </c>
+      <c r="W48" t="n">
+        <v>2142576</v>
+      </c>
+      <c r="X48" t="n">
+        <v>2142576</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -3755,6 +4193,15 @@
       <c r="U49" t="n">
         <v>1746089.984</v>
       </c>
+      <c r="V49" t="n">
+        <v>1746089.984</v>
+      </c>
+      <c r="W49" t="n">
+        <v>1714253.056</v>
+      </c>
+      <c r="X49" t="n">
+        <v>1700630.016</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -3822,6 +4269,15 @@
       <c r="U50" t="n">
         <v>0</v>
       </c>
+      <c r="V50" t="n">
+        <v>0</v>
+      </c>
+      <c r="W50" t="n">
+        <v>0</v>
+      </c>
+      <c r="X50" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -3889,6 +4345,15 @@
       <c r="U51" t="n">
         <v>1019710.976</v>
       </c>
+      <c r="V51" t="n">
+        <v>865142.976</v>
+      </c>
+      <c r="W51" t="n">
+        <v>1048160</v>
+      </c>
+      <c r="X51" t="n">
+        <v>1189005.952</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -3956,6 +4421,15 @@
       <c r="U52" t="n">
         <v>0</v>
       </c>
+      <c r="V52" t="n">
+        <v>0</v>
+      </c>
+      <c r="W52" t="n">
+        <v>0</v>
+      </c>
+      <c r="X52" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -4023,6 +4497,15 @@
       <c r="U53" t="n">
         <v>0</v>
       </c>
+      <c r="V53" t="n">
+        <v>0</v>
+      </c>
+      <c r="W53" t="n">
+        <v>0</v>
+      </c>
+      <c r="X53" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -4090,6 +4573,15 @@
       <c r="U54" t="n">
         <v>0</v>
       </c>
+      <c r="V54" t="n">
+        <v>0</v>
+      </c>
+      <c r="W54" t="n">
+        <v>0</v>
+      </c>
+      <c r="X54" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -4157,6 +4649,15 @@
       <c r="U55" t="n">
         <v>-29596</v>
       </c>
+      <c r="V55" t="n">
+        <v>-18514</v>
+      </c>
+      <c r="W55" t="n">
+        <v>-15111</v>
+      </c>
+      <c r="X55" t="n">
+        <v>-8684</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -4222,6 +4723,15 @@
         <v>0</v>
       </c>
       <c r="U56" t="n">
+        <v>0</v>
+      </c>
+      <c r="V56" t="n">
+        <v>0</v>
+      </c>
+      <c r="W56" t="n">
+        <v>0</v>
+      </c>
+      <c r="X56" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4251,6 +4761,9 @@
       <c r="S57" t="inlineStr"/>
       <c r="T57" t="inlineStr"/>
       <c r="U57" t="inlineStr"/>
+      <c r="V57" t="inlineStr"/>
+      <c r="W57" t="inlineStr"/>
+      <c r="X57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -4278,6 +4791,9 @@
       <c r="S58" t="inlineStr"/>
       <c r="T58" t="inlineStr"/>
       <c r="U58" t="inlineStr"/>
+      <c r="V58" t="inlineStr"/>
+      <c r="W58" t="inlineStr"/>
+      <c r="X58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -4343,6 +4859,15 @@
       <c r="U59" t="n">
         <v>1481512.96</v>
       </c>
+      <c r="V59" t="n">
+        <v>1452737.024</v>
+      </c>
+      <c r="W59" t="n">
+        <v>1726110.976</v>
+      </c>
+      <c r="X59" t="n">
+        <v>1883255.04</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -4408,6 +4933,15 @@
       <c r="U60" t="n">
         <v>-782745.024</v>
       </c>
+      <c r="V60" t="n">
+        <v>-749368.8959999999</v>
+      </c>
+      <c r="W60" t="n">
+        <v>-923137.024</v>
+      </c>
+      <c r="X60" t="n">
+        <v>-1023321.024</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -4473,6 +5007,15 @@
       <c r="U61" t="n">
         <v>698768</v>
       </c>
+      <c r="V61" t="n">
+        <v>703368.128</v>
+      </c>
+      <c r="W61" t="n">
+        <v>802974.0159999999</v>
+      </c>
+      <c r="X61" t="n">
+        <v>859934.0159999999</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -4538,6 +5081,15 @@
       <c r="U62" t="n">
         <v>-64505</v>
       </c>
+      <c r="V62" t="n">
+        <v>-74053</v>
+      </c>
+      <c r="W62" t="n">
+        <v>-58397</v>
+      </c>
+      <c r="X62" t="n">
+        <v>-68239</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -4603,6 +5155,15 @@
       <c r="U63" t="n">
         <v>-85445</v>
       </c>
+      <c r="V63" t="n">
+        <v>-101658.992</v>
+      </c>
+      <c r="W63" t="n">
+        <v>-81774</v>
+      </c>
+      <c r="X63" t="n">
+        <v>-91899</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -4668,6 +5229,15 @@
       <c r="U64" t="n">
         <v>-24542</v>
       </c>
+      <c r="V64" t="n">
+        <v>-31467</v>
+      </c>
+      <c r="W64" t="n">
+        <v>-25961</v>
+      </c>
+      <c r="X64" t="n">
+        <v>-109380</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -4733,6 +5303,15 @@
       <c r="U65" t="n">
         <v>11606</v>
       </c>
+      <c r="V65" t="n">
+        <v>-13399</v>
+      </c>
+      <c r="W65" t="n">
+        <v>4024</v>
+      </c>
+      <c r="X65" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -4798,6 +5377,15 @@
       <c r="U66" t="n">
         <v>0</v>
       </c>
+      <c r="V66" t="n">
+        <v>0</v>
+      </c>
+      <c r="W66" t="n">
+        <v>0</v>
+      </c>
+      <c r="X66" t="n">
+        <v>-8281</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -4861,6 +5449,15 @@
         <v>0</v>
       </c>
       <c r="U67" t="n">
+        <v>0</v>
+      </c>
+      <c r="V67" t="n">
+        <v>0</v>
+      </c>
+      <c r="W67" t="n">
+        <v>0</v>
+      </c>
+      <c r="X67" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4928,6 +5525,15 @@
       <c r="U68" t="n">
         <v>-431391.008</v>
       </c>
+      <c r="V68" t="n">
+        <v>-395922.048</v>
+      </c>
+      <c r="W68" t="n">
+        <v>-395116</v>
+      </c>
+      <c r="X68" t="n">
+        <v>-407592</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -4993,6 +5599,15 @@
       <c r="U69" t="n">
         <v>58944</v>
       </c>
+      <c r="V69" t="n">
+        <v>48432.992</v>
+      </c>
+      <c r="W69" t="n">
+        <v>61542</v>
+      </c>
+      <c r="X69" t="n">
+        <v>54913</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -5057,6 +5672,15 @@
       </c>
       <c r="U70" t="n">
         <v>-490335.008</v>
+      </c>
+      <c r="V70" t="n">
+        <v>-444354.976</v>
+      </c>
+      <c r="W70" t="n">
+        <v>-456657.984</v>
+      </c>
+      <c r="X70" t="n">
+        <v>-462504.992</v>
       </c>
     </row>
     <row r="71">
@@ -5085,6 +5709,9 @@
       <c r="S71" t="inlineStr"/>
       <c r="T71" t="inlineStr"/>
       <c r="U71" t="inlineStr"/>
+      <c r="V71" t="inlineStr"/>
+      <c r="W71" t="inlineStr"/>
+      <c r="X71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -5112,6 +5739,9 @@
       <c r="S72" t="inlineStr"/>
       <c r="T72" t="inlineStr"/>
       <c r="U72" t="inlineStr"/>
+      <c r="V72" t="inlineStr"/>
+      <c r="W72" t="inlineStr"/>
+      <c r="X72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -5139,6 +5769,9 @@
       <c r="S73" t="inlineStr"/>
       <c r="T73" t="inlineStr"/>
       <c r="U73" t="inlineStr"/>
+      <c r="V73" t="inlineStr"/>
+      <c r="W73" t="inlineStr"/>
+      <c r="X73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -5204,6 +5837,15 @@
       <c r="U74" t="n">
         <v>104491</v>
       </c>
+      <c r="V74" t="n">
+        <v>86867.992</v>
+      </c>
+      <c r="W74" t="n">
+        <v>245750</v>
+      </c>
+      <c r="X74" t="n">
+        <v>174543.008</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -5269,6 +5911,15 @@
       <c r="U75" t="n">
         <v>2477</v>
       </c>
+      <c r="V75" t="n">
+        <v>33573</v>
+      </c>
+      <c r="W75" t="n">
+        <v>-4971</v>
+      </c>
+      <c r="X75" t="n">
+        <v>-2871</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -5333,6 +5984,15 @@
       </c>
       <c r="U76" t="n">
         <v>8832</v>
+      </c>
+      <c r="V76" t="n">
+        <v>74991</v>
+      </c>
+      <c r="W76" t="n">
+        <v>-57762</v>
+      </c>
+      <c r="X76" t="n">
+        <v>-30826</v>
       </c>
     </row>
     <row r="77">
@@ -5361,6 +6021,9 @@
       <c r="S77" t="inlineStr"/>
       <c r="T77" t="inlineStr"/>
       <c r="U77" t="inlineStr"/>
+      <c r="V77" t="inlineStr"/>
+      <c r="W77" t="inlineStr"/>
+      <c r="X77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -5388,6 +6051,9 @@
       <c r="S78" t="inlineStr"/>
       <c r="T78" t="inlineStr"/>
       <c r="U78" t="inlineStr"/>
+      <c r="V78" t="inlineStr"/>
+      <c r="W78" t="inlineStr"/>
+      <c r="X78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -5451,6 +6117,15 @@
         <v>0</v>
       </c>
       <c r="U79" t="n">
+        <v>0</v>
+      </c>
+      <c r="V79" t="n">
+        <v>0</v>
+      </c>
+      <c r="W79" t="n">
+        <v>0</v>
+      </c>
+      <c r="X79" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5517,6 +6192,15 @@
       </c>
       <c r="U80" t="n">
         <v>115800</v>
+      </c>
+      <c r="V80" t="n">
+        <v>195431.968</v>
+      </c>
+      <c r="W80" t="n">
+        <v>183016.992</v>
+      </c>
+      <c r="X80" t="n">
+        <v>140846</v>
       </c>
     </row>
   </sheetData>
